--- a/1_Requirements/Simple Gantt Chart.xlsx
+++ b/1_Requirements/Simple Gantt Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
-  <si>
-    <t>Phase 1 Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>Task 3</t>
   </si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
   </si>
   <si>
     <t>Task 1</t>
@@ -71,9 +65,6 @@
 TO</t>
   </si>
   <si>
-    <t>PROJECT TITLE</t>
-  </si>
-  <si>
     <t>Project Management Templates</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>Company Name</t>
   </si>
   <si>
     <t>Project Lead</t>
@@ -155,9 +143,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -232,11 +217,116 @@
 If you haven't added any new rows in this worksheet, you will find 2 additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through column A cells to find the additional blocks. 
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
+  <si>
+    <t>Sukanya Deka</t>
+  </si>
+  <si>
+    <t>Mon,6-28-2021</t>
+  </si>
+  <si>
+    <t>Jun 28,2021</t>
+  </si>
+  <si>
+    <t>GitHub Repository Creatio</t>
+  </si>
+  <si>
+    <t>Deciding on thr Project Title</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Listing out the Requirements</t>
+  </si>
+  <si>
+    <t>Making Flowchart and Diagram</t>
+  </si>
+  <si>
+    <t>Concept Creation</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Coding the code of the project</t>
+  </si>
+  <si>
+    <t>Creating MakeFiles</t>
+  </si>
+  <si>
+    <t>Project Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            28   29    30    1    2 </t>
+  </si>
+  <si>
+    <t>Testing and Validation1</t>
+  </si>
+  <si>
+    <t>Testing and Validation2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Jul 5, 2021</t>
+  </si>
+  <si>
+    <t>Jul 14,2021</t>
+  </si>
+  <si>
+    <t>Tuesday,6-29-2021</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>LTTS</t>
+  </si>
+  <si>
+    <t>Fri,7-2-21</t>
+  </si>
+  <si>
+    <t>Sat,7-3-2021</t>
+  </si>
+  <si>
+    <t>Mon 7-5-2021</t>
+  </si>
+  <si>
+    <t>Sun,7-4-21</t>
+  </si>
+  <si>
+    <t>Thu,7-8-21</t>
+  </si>
+  <si>
+    <t>Mon,7-5-21</t>
+  </si>
+  <si>
+    <t>Sun,7-11-21</t>
+  </si>
+  <si>
+    <t>Fri,7-9-21</t>
+  </si>
+  <si>
+    <t>Tue,7-13-21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -244,7 +334,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +579,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -610,6 +718,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +775,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -901,6 +1035,33 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -918,7 +1079,181 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1045,15 +1380,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1167,7 +1502,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1514,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1245,7 +1580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -1280,7 +1615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -1457,44 +1792,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D1" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="29" width="2.5546875" customWidth="1"/>
+    <col min="30" max="30" width="2.33203125" customWidth="1"/>
+    <col min="31" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1502,51 +1839,49 @@
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="A2" s="58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="86"/>
-      <c r="E3" s="91">
-        <f ca="1">TODAY()</f>
-        <v>44046</v>
+      <c r="E3" s="91" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="91"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="59" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
-        <f ca="1">I5</f>
-        <v>44046</v>
+      <c r="I4" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="J4" s="89"/>
       <c r="K4" s="89"/>
@@ -1554,9 +1889,8 @@
       <c r="M4" s="89"/>
       <c r="N4" s="89"/>
       <c r="O4" s="90"/>
-      <c r="P4" s="88">
-        <f ca="1">P5</f>
-        <v>44053</v>
+      <c r="P4" s="88" t="s">
+        <v>68</v>
       </c>
       <c r="Q4" s="89"/>
       <c r="R4" s="89"/>
@@ -1564,9 +1898,8 @@
       <c r="T4" s="89"/>
       <c r="U4" s="89"/>
       <c r="V4" s="90"/>
-      <c r="W4" s="88">
-        <f ca="1">W5</f>
-        <v>44060</v>
+      <c r="W4" s="88" t="s">
+        <v>69</v>
       </c>
       <c r="X4" s="89"/>
       <c r="Y4" s="89"/>
@@ -1574,50 +1907,35 @@
       <c r="AA4" s="89"/>
       <c r="AB4" s="89"/>
       <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
-        <f ca="1">AD5</f>
-        <v>44067</v>
-      </c>
+      <c r="AD4" s="88"/>
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
       <c r="AG4" s="89"/>
       <c r="AH4" s="89"/>
       <c r="AI4" s="89"/>
       <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
-        <f ca="1">AK5</f>
-        <v>44074</v>
-      </c>
+      <c r="AK4" s="88"/>
       <c r="AL4" s="89"/>
       <c r="AM4" s="89"/>
       <c r="AN4" s="89"/>
       <c r="AO4" s="89"/>
       <c r="AP4" s="89"/>
       <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
-        <f ca="1">AR5</f>
-        <v>44081</v>
-      </c>
+      <c r="AR4" s="88"/>
       <c r="AS4" s="89"/>
       <c r="AT4" s="89"/>
       <c r="AU4" s="89"/>
       <c r="AV4" s="89"/>
       <c r="AW4" s="89"/>
       <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
-        <f ca="1">AY5</f>
-        <v>44088</v>
-      </c>
+      <c r="AY4" s="88"/>
       <c r="AZ4" s="89"/>
       <c r="BA4" s="89"/>
       <c r="BB4" s="89"/>
       <c r="BC4" s="89"/>
       <c r="BD4" s="89"/>
       <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
-        <f ca="1">BF5</f>
-        <v>44095</v>
-      </c>
+      <c r="BF4" s="88"/>
       <c r="BG4" s="89"/>
       <c r="BH4" s="89"/>
       <c r="BI4" s="89"/>
@@ -1625,9 +1943,9 @@
       <c r="BK4" s="89"/>
       <c r="BL4" s="90"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -1635,482 +1953,228 @@
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
-      <c r="I5" s="11">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44046</v>
+      <c r="I5" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="J5" s="10">
-        <f ca="1">I5+1</f>
-        <v>44047</v>
+        <v>29</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44048</v>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>30</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44049</v>
+        <v>1</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44050</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44051</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44052</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="P5" s="11">
-        <f ca="1">O5+1</f>
-        <v>44053</v>
+        <f>O5+1</f>
+        <v>5</v>
       </c>
       <c r="Q5" s="10">
-        <f ca="1">P5+1</f>
-        <v>44054</v>
+        <f>P5+1</f>
+        <v>6</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44055</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44056</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44057</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44058</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44059</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="W5" s="11">
-        <f ca="1">V5+1</f>
-        <v>44060</v>
+        <f>V5+1</f>
+        <v>12</v>
       </c>
       <c r="X5" s="10">
-        <f ca="1">W5+1</f>
-        <v>44061</v>
+        <f>W5+1</f>
+        <v>13</v>
       </c>
       <c r="Y5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44062</v>
-      </c>
-      <c r="Z5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44063</v>
-      </c>
-      <c r="AA5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44064</v>
-      </c>
-      <c r="AB5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44065</v>
-      </c>
-      <c r="AC5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44066</v>
-      </c>
-      <c r="AD5" s="11">
-        <f ca="1">AC5+1</f>
-        <v>44067</v>
-      </c>
-      <c r="AE5" s="10">
-        <f ca="1">AD5+1</f>
-        <v>44068</v>
-      </c>
-      <c r="AF5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44069</v>
-      </c>
-      <c r="AG5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44070</v>
-      </c>
-      <c r="AH5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44071</v>
-      </c>
-      <c r="AI5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44072</v>
-      </c>
-      <c r="AJ5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44073</v>
-      </c>
-      <c r="AK5" s="11">
-        <f ca="1">AJ5+1</f>
-        <v>44074</v>
-      </c>
-      <c r="AL5" s="10">
-        <f ca="1">AK5+1</f>
-        <v>44075</v>
-      </c>
-      <c r="AM5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44076</v>
-      </c>
-      <c r="AN5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44077</v>
-      </c>
-      <c r="AO5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44078</v>
-      </c>
-      <c r="AP5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44079</v>
-      </c>
-      <c r="AQ5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44080</v>
-      </c>
-      <c r="AR5" s="11">
-        <f ca="1">AQ5+1</f>
-        <v>44081</v>
-      </c>
-      <c r="AS5" s="10">
-        <f ca="1">AR5+1</f>
-        <v>44082</v>
-      </c>
-      <c r="AT5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44083</v>
-      </c>
-      <c r="AU5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44084</v>
-      </c>
-      <c r="AV5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
-      </c>
-      <c r="AW5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44086</v>
-      </c>
-      <c r="AX5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44087</v>
-      </c>
-      <c r="AY5" s="11">
-        <f ca="1">AX5+1</f>
-        <v>44088</v>
-      </c>
-      <c r="AZ5" s="10">
-        <f ca="1">AY5+1</f>
-        <v>44089</v>
-      </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44090</v>
-      </c>
-      <c r="BB5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44091</v>
-      </c>
-      <c r="BC5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44092</v>
-      </c>
-      <c r="BD5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44093</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>44094</v>
-      </c>
-      <c r="BF5" s="11">
-        <f ca="1">BE5+1</f>
-        <v>44095</v>
-      </c>
-      <c r="BG5" s="10">
-        <f ca="1">BF5+1</f>
-        <v>44096</v>
-      </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44097</v>
-      </c>
-      <c r="BI5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44098</v>
-      </c>
-      <c r="BJ5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44099</v>
-      </c>
-      <c r="BK5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44100</v>
-      </c>
-      <c r="BL5" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>44101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="12"/>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>M</v>
-      </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="AV6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AY6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AZ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BA6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BB6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BC6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BD6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BE6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BF6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="BG6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BH6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BI6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BJ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BK6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BL6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+    </row>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2175,12 +2239,12 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="59" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2188,7 +2252,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" si="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2224,9 +2288,9 @@
       <c r="AM8" s="44"/>
       <c r="AN8" s="44"/>
       <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
+      <c r="AP8" s="100"/>
       <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
+      <c r="AR8" s="99"/>
       <c r="AS8" s="44"/>
       <c r="AT8" s="44"/>
       <c r="AU8" s="44"/>
@@ -2248,33 +2312,33 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="59" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="66">
-        <f ca="1">Project_Start</f>
-        <v>44046</v>
-      </c>
-      <c r="F9" s="66">
-        <f ca="1">E9+3</f>
-        <v>44049</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="66" t="str">
+        <f>Project_Start</f>
+        <v>Mon,6-28-2021</v>
+      </c>
+      <c r="F9" s="66" t="str">
+        <f>Project_Start</f>
+        <v>Mon,6-28-2021</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I9" s="44"/>
+      <c r="H9" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="92"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
@@ -2331,31 +2395,32 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="59" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="72"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="66">
-        <f ca="1">F9</f>
-        <v>44049</v>
-      </c>
-      <c r="F10" s="66">
-        <f ca="1">E10+2</f>
-        <v>44051</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="66" t="str">
+        <f>F9</f>
+        <v>Mon,6-28-2021</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="44"/>
+      <c r="H10" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="92"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -2412,33 +2477,33 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="66">
-        <f ca="1">F10</f>
-        <v>44051</v>
-      </c>
-      <c r="F11" s="66">
-        <f ca="1">E11+4</f>
-        <v>44055</v>
+      <c r="E11" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H11" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
@@ -2491,36 +2556,36 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="72"/>
+        <v>53</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="66">
-        <f ca="1">F11</f>
-        <v>44055</v>
-      </c>
-      <c r="F12" s="66">
-        <f ca="1">E12+5</f>
-        <v>44060</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>75</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H12" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
@@ -2570,25 +2635,27 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="66">
-        <f ca="1">E10+1</f>
-        <v>44050</v>
-      </c>
-      <c r="F13" s="66">
-        <f ca="1">E13+2</f>
-        <v>44052</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>77</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+      <c r="H13" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2596,11 +2663,11 @@
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="97"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44"/>
@@ -2647,12 +2714,12 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="24"/>
@@ -2660,7 +2727,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I14" s="44"/>
@@ -2720,27 +2787,27 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>57</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="67">
-        <f ca="1">E13+1</f>
-        <v>44051</v>
-      </c>
-      <c r="F15" s="67">
-        <f ca="1">E15+4</f>
-        <v>44055</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H15" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2799,27 +2866,27 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="27">
         <v>0.5</v>
       </c>
-      <c r="E16" s="67">
-        <f ca="1">E15+2</f>
-        <v>44053</v>
-      </c>
-      <c r="F16" s="67">
-        <f ca="1">E16+5</f>
-        <v>44058</v>
+      <c r="E16" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H16" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2878,25 +2945,28 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="67">
-        <f ca="1">F16</f>
-        <v>44058</v>
-      </c>
-      <c r="F17" s="67">
-        <f ca="1">E17+3</f>
-        <v>44061</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f>F16</f>
+        <v>Fri,7-9-21</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H17" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2955,25 +3025,29 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="67">
-        <f ca="1">E17</f>
-        <v>44058</v>
-      </c>
-      <c r="F18" s="67">
-        <f ca="1">E18+2</f>
-        <v>44060</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f>E17</f>
+        <v>Fri,7-9-21</v>
+      </c>
+      <c r="F18" s="67" t="e">
+        <f>E18+2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+      <c r="H18" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3032,25 +3106,27 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="74"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="67">
-        <f ca="1">E18</f>
-        <v>44058</v>
-      </c>
-      <c r="F19" s="67">
-        <f ca="1">E19+3</f>
-        <v>44061</v>
+      <c r="E19" s="67" t="str">
+        <f>E18</f>
+        <v>Fri,7-9-21</v>
+      </c>
+      <c r="F19" s="67" t="e">
+        <f>E19+3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H19" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3109,12 +3185,12 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="29"/>
@@ -3122,7 +3198,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20" s="44"/>
@@ -3182,25 +3258,25 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="68">
-        <f ca="1">E9+15</f>
-        <v>44061</v>
-      </c>
-      <c r="F21" s="68">
-        <f ca="1">E21+5</f>
-        <v>44066</v>
+      <c r="E21" s="68" t="e">
+        <f>E9+15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="68" t="e">
+        <f>E21+5</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H21" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3259,25 +3335,25 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="68">
-        <f ca="1">F21+1</f>
-        <v>44067</v>
-      </c>
-      <c r="F22" s="68">
-        <f ca="1">E22+4</f>
-        <v>44071</v>
+      <c r="E22" s="68" t="e">
+        <f>F21+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="68" t="e">
+        <f>E22+4</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H22" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3336,25 +3412,25 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="68">
-        <f ca="1">E22+5</f>
-        <v>44072</v>
-      </c>
-      <c r="F23" s="68">
-        <f ca="1">E23+5</f>
-        <v>44077</v>
+      <c r="E23" s="68" t="e">
+        <f>E22+5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="68" t="e">
+        <f>E23+5</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H23" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3413,25 +3489,25 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="68">
-        <f ca="1">F23+1</f>
-        <v>44078</v>
-      </c>
-      <c r="F24" s="68">
-        <f ca="1">E24+4</f>
-        <v>44082</v>
+      <c r="E24" s="68" t="e">
+        <f>F23+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="68" t="e">
+        <f>E24+4</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H24" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3490,25 +3566,25 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="68">
-        <f ca="1">E23</f>
-        <v>44072</v>
-      </c>
-      <c r="F25" s="68">
-        <f ca="1">E25+4</f>
-        <v>44076</v>
+      <c r="E25" s="68" t="e">
+        <f>E23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="68" t="e">
+        <f>E25+4</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H25" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3567,12 +3643,12 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="34"/>
@@ -3580,7 +3656,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I26" s="44"/>
@@ -3640,22 +3716,22 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="58"/>
       <c r="B27" s="83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="37"/>
       <c r="E27" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I27" s="44"/>
@@ -3715,22 +3791,22 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="58"/>
       <c r="B28" s="83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="37"/>
       <c r="E28" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="44"/>
@@ -3790,22 +3866,22 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="58"/>
       <c r="B29" s="83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="37"/>
       <c r="E29" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="44"/>
@@ -3865,22 +3941,22 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="37"/>
       <c r="E30" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="44"/>
@@ -3940,22 +4016,22 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="58"/>
       <c r="B31" s="83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="37"/>
       <c r="E31" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="44"/>
@@ -4015,9 +4091,9 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32" s="84"/>
       <c r="C32" s="79"/>
@@ -4026,7 +4102,7 @@
       <c r="F32" s="70"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I32" s="44"/>
@@ -4086,12 +4162,12 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
@@ -4099,7 +4175,7 @@
       <c r="F33" s="42"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I33" s="46"/>
@@ -4159,18 +4235,23 @@
       <c r="BK33" s="46"/>
       <c r="BL33" s="46"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="30" customHeight="1">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="30" customHeight="1">
       <c r="C35" s="14"/>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="30" customHeight="1">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4199,15 +4280,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4254,93 +4335,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6">
       <c r="A2" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8">
+      <c r="A4" s="52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
+      <c r="A5" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+      <c r="A6" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8">
+      <c r="A8" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6">
+      <c r="A9" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8">
+      <c r="A11" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8">
+      <c r="A12" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8">
+      <c r="A14" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" customHeight="1">
+      <c r="A15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="72">
+      <c r="A16" s="53" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4583,13 +4664,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f90b35a-c7f5-466e-bdce-aad1192bcad3"/>
+    <ds:schemaRef ds:uri="abad16e2-75b5-4d02-890c-30395bfef711"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>